--- a/Assignment1/Middle_Assignment1.xlsx
+++ b/Assignment1/Middle_Assignment1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final\Auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auto_NashTech\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745CD88C-43D0-4297-99A5-6354943450C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0C048F-BC0B-4529-AF5D-8F8F6D52E738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F34" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="F44" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D49" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="D62" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="D63" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Passed</t>
   </si>
@@ -209,12 +209,6 @@
   </si>
   <si>
     <t>Common Checklist</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail - DE</t>
   </si>
   <si>
     <t xml:space="preserve">Pre-condition </t>
@@ -278,51 +272,15 @@
     <t>1.View Product function – Display Price</t>
   </si>
   <si>
-    <t>Verify the default value of original price and discount field will be the number</t>
-  </si>
-  <si>
     <t>2. View Product function – Display photos</t>
   </si>
   <si>
-    <t>Verify the original price use comma as decimal separator to separate groups of thousands</t>
-  </si>
-  <si>
-    <t>Verify the original price use comma as decimal separator to separate groups of billions</t>
-  </si>
-  <si>
-    <t>Verify the original price use comma as decimal separator to separate groups of millions</t>
-  </si>
-  <si>
-    <t>Verify the discounted price use comma as decimal separator to separate groups of thousands</t>
-  </si>
-  <si>
-    <t>Verify the discounted price use comma as decimal separator to separate groups of millions</t>
-  </si>
-  <si>
-    <t>Verify the discounted price use comma as decimal separator to separate groups of billions</t>
-  </si>
-  <si>
-    <t>Verify the discounted price round up</t>
-  </si>
-  <si>
-    <t>Verify the discounted price round down</t>
-  </si>
-  <si>
-    <t>Verify 5 photos displayed on the photo list</t>
-  </si>
-  <si>
-    <t>Verify first one is displayed on the big photo frame</t>
-  </si>
-  <si>
     <t>Verify first one can be clicked on &gt; button to view next photo</t>
   </si>
   <si>
     <t>Verify first one can not be clicked on &lt; button to view previous photos</t>
   </si>
   <si>
-    <t>Verify photo clicked to display on the big photo frame</t>
-  </si>
-  <si>
     <t>Verify photo five can not be clicked on &gt; button to view next photos</t>
   </si>
   <si>
@@ -335,13 +293,91 @@
     <t>Verify second one can be clicked on &lt; button to view previous photos</t>
   </si>
   <si>
-    <t>Verify the discounted price use comma as decimal separator to separate groups of &gt; billions</t>
-  </si>
-  <si>
-    <t>Verify the original price use comma as decimal separator to separate groups of &lt; thousands</t>
-  </si>
-  <si>
-    <t>Verify the original price use comma as decimal separator to separate groups of &gt; billions</t>
+    <t>Verify the discounted price &lt; original price and equals = original*percent</t>
+  </si>
+  <si>
+    <t>Verify up to 5 photos displayed on the photos list</t>
+  </si>
+  <si>
+    <t>1.1 Original price</t>
+  </si>
+  <si>
+    <t>Verify the original price use comma as decimal separator to separate group in case thousands (1,000)</t>
+  </si>
+  <si>
+    <t>Verify the original price use comma as decimal separator to separate group in case &lt; thousands(&lt;1,000)</t>
+  </si>
+  <si>
+    <t>Verify the original price use comma as decimal separator to separate group in case millions (1,000,000)</t>
+  </si>
+  <si>
+    <t>Verify the original price use comma as decimal separator to separate group in case billions (1,000,000,000)</t>
+  </si>
+  <si>
+    <t>Verify the original price use comma as decimal separator to separate group in case &gt; billions (&gt;1,000,000,000)</t>
+  </si>
+  <si>
+    <t>Verify the UI of the original price can be displayed</t>
+  </si>
+  <si>
+    <t>Verify the UI of the discounted price can be displayed</t>
+  </si>
+  <si>
+    <t>Verify the discounted price use comma as decimal separator to separate group in case &lt; thousands(&lt;1,000)</t>
+  </si>
+  <si>
+    <t>Verify the discounted price use comma as decimal separator to separate group in case thousands (1,000)</t>
+  </si>
+  <si>
+    <t>Verify the discounted price use comma as decimal separator to separate group in case millions (1,000,000)</t>
+  </si>
+  <si>
+    <t>Verify the discounted price use comma as decimal separator to separate group in case billions (1,000,000,000)</t>
+  </si>
+  <si>
+    <t>Verify the discounted price use comma as decimal separator to separate group in case &gt; billions (&gt;1,000,000,000)</t>
+  </si>
+  <si>
+    <t>Verify the discounted price round down in case after "." &lt; 5</t>
+  </si>
+  <si>
+    <t>Verify the discounted price round up in case after "."&gt;=5</t>
+  </si>
+  <si>
+    <t>Verify the UI of the photos can be displayed</t>
+  </si>
+  <si>
+    <t>1.2 Discounted price</t>
+  </si>
+  <si>
+    <t>2.1 Photos</t>
+  </si>
+  <si>
+    <t>Verify the discounted price will be the local currency</t>
+  </si>
+  <si>
+    <t>Verify the original price will be the local currency</t>
+  </si>
+  <si>
+    <t>Verify first one is displayed on the big photo frame in case defaut</t>
+  </si>
+  <si>
+    <t>Verify at least one photos displayed on the photos list</t>
+  </si>
+  <si>
+    <t>Verify the photos can not more than 5 photos</t>
+  </si>
+  <si>
+    <t>Verify photos list when no one photos in the photos list can not be displayed</t>
+  </si>
+  <si>
+    <t>2.2 Click &lt;&gt; button</t>
+  </si>
+  <si>
+    <t>Verify the UI of the &lt;&gt; button can be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the photo clicked to display on the big photo frame </t>
   </si>
 </sst>
 </file>
@@ -352,7 +388,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,8 +544,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,8 +656,32 @@
         <bgColor indexed="32"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.39997558519241921"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.39997558519241921"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -666,8 +734,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1">
@@ -715,8 +798,9 @@
     </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -792,9 +876,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -817,35 +898,64 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="26">
     <cellStyle name="background" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="background 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="body_tyext" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -855,6 +965,7 @@
     <cellStyle name="Header" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Heading" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Hyperlink 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="25" xr:uid="{6771D33D-EE77-4527-A03B-D422496D66A5}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
@@ -1381,27 +1492,27 @@
   <sheetPr codeName="Sheet5">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X91"/>
+  <dimension ref="A1:X104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="38" customWidth="1"/>
-    <col min="2" max="4" width="35.140625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="39" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="39" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="39" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="11.28515625" style="37" customWidth="1"/>
+    <col min="2" max="4" width="35.140625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="38" customWidth="1"/>
+    <col min="6" max="8" width="9.7109375" style="38" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="38" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="14.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1410,13 +1521,13 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1425,9 +1536,9 @@
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1438,45 +1549,39 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="B4" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="X4" s="8" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:24" s="8" customFormat="1" ht="144.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="X5" s="8" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="1:24" s="8" customFormat="1" ht="25.5">
       <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1485,13 +1590,13 @@
     </row>
     <row r="7" spans="1:24" s="8" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1501,18 +1606,18 @@
     </row>
     <row r="8" spans="1:24" s="11" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="44">
+        <v>8</v>
+      </c>
+      <c r="B8" s="48">
         <v>44842</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:24" s="11" customFormat="1">
       <c r="A9" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="13" t="str">
         <f>F17</f>
@@ -1529,7 +1634,7 @@
     </row>
     <row r="10" spans="1:24" s="11" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1566,7 +1671,7 @@
     </row>
     <row r="14" spans="1:24" s="11" customFormat="1">
       <c r="A14" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1579,7 +1684,7 @@
     </row>
     <row r="15" spans="1:24" s="11" customFormat="1" ht="38.25">
       <c r="A15" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1594,72 +1699,69 @@
       <c r="A16" s="17"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="F16" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" s="18" customFormat="1" ht="38.25">
       <c r="A17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="D17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="E17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>19</v>
-      </c>
       <c r="F17" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="B18" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:9" s="28" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A19" s="24">
+    <row r="19" spans="1:9" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B19" s="50"/>
+      <c r="C19" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="49"/>
+    </row>
+    <row r="20" spans="1:9" s="28" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A20" s="24">
         <v>1</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:9" s="28" customFormat="1" ht="38.25" outlineLevel="1">
-      <c r="A20" s="24">
-        <v>2</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>46</v>
+      <c r="B20" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="25"/>
@@ -1669,16 +1771,16 @@
       <c r="H20" s="24"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:9" s="28" customFormat="1" ht="38.25" outlineLevel="1">
-      <c r="A21" s="29">
+    <row r="21" spans="1:9" s="28" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A21" s="24">
         <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
-        <v>3</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>52</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="30"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="26"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -1686,106 +1788,105 @@
       <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" s="28" customFormat="1" ht="38.25" outlineLevel="1">
-      <c r="A22" s="29">
-        <f ca="1">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
-        <v>4</v>
+      <c r="A22" s="24">
+        <f t="shared" ref="A22:A25" ca="1" si="0">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
+        <v>3</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="26"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="1:9" s="32" customFormat="1" ht="38.25" outlineLevel="1">
-      <c r="A23" s="29">
-        <f ca="1">IF(OFFSET(A23,-1,0) ="",OFFSET(A23,-2,0)+1,OFFSET(A23,-1,0)+1 )</f>
-        <v>5</v>
+    <row r="23" spans="1:9" s="28" customFormat="1" ht="45" customHeight="1" outlineLevel="1">
+      <c r="A23" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="26"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="26"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" s="32" customFormat="1" ht="38.25" outlineLevel="1">
-      <c r="A24" s="29">
-        <v>6</v>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" s="28" customFormat="1" ht="38.25" outlineLevel="1">
+      <c r="A24" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="26"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="26"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" s="32" customFormat="1" ht="38.25" outlineLevel="1">
-      <c r="A25" s="29">
-        <v>7</v>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" s="28" customFormat="1" ht="38.25" outlineLevel="1">
+      <c r="A25" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="26"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="26"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" s="32" customFormat="1" ht="38.25" outlineLevel="1">
-      <c r="A26" s="29">
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:9" s="28" customFormat="1" ht="38.25" outlineLevel="1">
+      <c r="A26" s="24">
         <f ca="1">IF(OFFSET(A26,-1,0) ="",OFFSET(A26,-2,0)+1,OFFSET(A26,-1,0)+1 )</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="26"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="26"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" s="32" customFormat="1" ht="38.25" outlineLevel="1">
-      <c r="A27" s="29">
-        <f ca="1">IF(OFFSET(A27,-1,0) ="",OFFSET(A27,-2,0)+1,OFFSET(A27,-1,0)+1 )</f>
-        <v>9</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" s="32" customFormat="1" ht="38.25" outlineLevel="1">
-      <c r="A28" s="29">
-        <f t="shared" ref="A28:A41" ca="1" si="0">IF(OFFSET(A28,-1,0) ="",OFFSET(A28,-2,0)+1,OFFSET(A28,-1,0)+1 )</f>
-        <v>10</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>33</v>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="49"/>
+    </row>
+    <row r="28" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A28" s="24">
+        <f ca="1">IF(OFFSET(A28,-1,0)="",OFFSET(A28,-2,0)+1,OFFSET(A28,-1,0)+1)</f>
+        <v>8</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="26"/>
@@ -1795,13 +1896,12 @@
       <c r="H28" s="24"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" s="32" customFormat="1" ht="38.25" outlineLevel="1">
-      <c r="A29" s="29">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>45</v>
+    <row r="29" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A29" s="24">
+        <v>9</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>51</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="26"/>
@@ -1811,13 +1911,12 @@
       <c r="H29" s="24"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" s="32" customFormat="1" ht="14.25" outlineLevel="1">
-      <c r="A30" s="29">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+    <row r="30" spans="1:9" s="31" customFormat="1" ht="38.25" outlineLevel="1">
+      <c r="A30" s="24">
+        <v>10</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="26"/>
@@ -1827,13 +1926,12 @@
       <c r="H30" s="24"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" s="32" customFormat="1" ht="14.25" outlineLevel="1">
-      <c r="A31" s="29">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+    <row r="31" spans="1:9" s="31" customFormat="1" ht="38.25" outlineLevel="1">
+      <c r="A31" s="24">
+        <v>11</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="26"/>
@@ -1843,257 +1941,453 @@
       <c r="H31" s="24"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" s="32" customFormat="1" ht="14.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="34"/>
-    </row>
-    <row r="33" spans="1:9" s="32" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A33" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+    <row r="32" spans="1:9" s="31" customFormat="1" ht="38.25" outlineLevel="1">
+      <c r="A32" s="24">
+        <v>12</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" s="31" customFormat="1" ht="38.25" outlineLevel="1">
+      <c r="A33" s="24">
+        <v>13</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="26"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="36"/>
-    </row>
-    <row r="34" spans="1:9" s="32" customFormat="1" ht="30.75" customHeight="1" outlineLevel="1">
-      <c r="A34" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" s="31" customFormat="1" ht="38.25" outlineLevel="1">
+      <c r="A34" s="24">
+        <v>14</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="26"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="36"/>
-    </row>
-    <row r="35" spans="1:9" s="32" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A35" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A35" s="24">
+        <v>15</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="36"/>
-    </row>
-    <row r="36" spans="1:9" s="32" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A36" s="36">
-        <v>14</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>39</v>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A36" s="24">
+        <v>16</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>46</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
-      <c r="I36" s="36"/>
-    </row>
-    <row r="37" spans="1:9" s="32" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A37" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>44</v>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A37" s="24">
+        <v>17</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>47</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="31"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
-      <c r="I37" s="36"/>
-    </row>
-    <row r="38" spans="1:9" s="32" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A38" s="36">
-        <v>16</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="36"/>
-    </row>
-    <row r="39" spans="1:9" s="32" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A39" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="36"/>
-    </row>
-    <row r="40" spans="1:9" s="32" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A40" s="36">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A38" s="32"/>
+      <c r="B38" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="1:9" s="56" customFormat="1" ht="14.25">
+      <c r="A39" s="58"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="53"/>
+    </row>
+    <row r="40" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A40" s="35">
         <v>18</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>41</v>
+      <c r="B40" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="31"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="26"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="36"/>
-    </row>
-    <row r="41" spans="1:9" s="32" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A41" s="36">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I40" s="35"/>
+    </row>
+    <row r="41" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A41" s="35">
+        <f t="shared" ref="A41:A54" ca="1" si="1">IF(OFFSET(A41,-1,0) ="",OFFSET(A41,-2,0)+1,OFFSET(A41,-1,0)+1 )</f>
         <v>19</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="26"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="26"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
-      <c r="I41" s="36"/>
-    </row>
-    <row r="42" spans="1:9" s="32" customFormat="1" ht="14.25"/>
-    <row r="43" spans="1:9" s="32" customFormat="1" ht="14.25"/>
-    <row r="44" spans="1:9" s="32" customFormat="1" ht="14.25"/>
-    <row r="45" spans="1:9" s="37" customFormat="1" ht="14.25"/>
-    <row r="46" spans="1:9" s="32" customFormat="1" ht="14.25"/>
-    <row r="47" spans="1:9" s="32" customFormat="1"/>
-    <row r="48" spans="1:9" s="32" customFormat="1" ht="14.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
+      <c r="I41" s="35"/>
+    </row>
+    <row r="42" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A42" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="35"/>
+    </row>
+    <row r="43" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A43" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="35"/>
+    </row>
+    <row r="44" spans="1:9" s="31" customFormat="1" ht="30.75" customHeight="1" outlineLevel="1">
+      <c r="A44" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="35"/>
+    </row>
+    <row r="45" spans="1:9" s="31" customFormat="1" ht="30.75" customHeight="1" outlineLevel="1">
+      <c r="A45" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="1:9" s="56" customFormat="1" ht="14.25">
+      <c r="A46" s="58"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="51"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="53"/>
+    </row>
+    <row r="47" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A47" s="35">
+        <f ca="1">IF(OFFSET(A47,-1,0)="",OFFSET(A47,-2,0)+1,OFFSET(A47,-1,0)+1)</f>
+        <v>24</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="35"/>
+    </row>
+    <row r="48" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A48" s="35">
+        <f ca="1">IF(OFFSET(A48,-1,0)="",OFFSET(A48,-2,0)+1,OFFSET(A48,-1,0)+1)</f>
+        <v>25</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
       <c r="F48" s="24"/>
-      <c r="G48" s="36"/>
-    </row>
-    <row r="49" spans="1:7" s="32" customFormat="1" ht="14.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="35"/>
+    </row>
+    <row r="49" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A49" s="35">
+        <f ca="1">IF(OFFSET(A49,-1,0)="",OFFSET(A49,-2,0)+1,OFFSET(A49,-1,0)+1)</f>
+        <v>26</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="26"/>
       <c r="F49" s="24"/>
-      <c r="G49" s="36"/>
-    </row>
-    <row r="50" spans="1:7" s="32" customFormat="1" ht="14.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="35"/>
+    </row>
+    <row r="50" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A50" s="35">
+        <f ca="1">IF(OFFSET(A50,-1,0) ="",OFFSET(A50,-2,0)+1,OFFSET(A50,-1,0)+1 )</f>
+        <v>27</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="26"/>
       <c r="F50" s="24"/>
-      <c r="G50" s="36"/>
-    </row>
-    <row r="51" spans="1:7" s="32" customFormat="1" ht="14.25"/>
-    <row r="52" spans="1:7" s="32" customFormat="1" ht="14.25"/>
-    <row r="53" spans="1:7" s="32" customFormat="1" ht="14.25"/>
-    <row r="54" spans="1:7" s="32" customFormat="1" ht="14.25"/>
-    <row r="55" spans="1:7" s="32" customFormat="1" ht="14.25"/>
-    <row r="56" spans="1:7" s="32" customFormat="1" ht="14.25"/>
-    <row r="57" spans="1:7" s="32" customFormat="1" ht="14.25"/>
-    <row r="58" spans="1:7" s="32" customFormat="1" ht="14.25"/>
-    <row r="59" spans="1:7" s="32" customFormat="1" ht="14.25"/>
-    <row r="60" spans="1:7" s="32" customFormat="1" ht="14.25"/>
-    <row r="61" spans="1:7" s="32" customFormat="1" ht="14.25"/>
-    <row r="62" spans="1:7" s="32" customFormat="1" ht="14.25"/>
-    <row r="63" spans="1:7" s="32" customFormat="1" ht="14.25"/>
-    <row r="64" spans="1:7" s="32" customFormat="1" ht="14.25"/>
-    <row r="65" s="32" customFormat="1" ht="14.25"/>
-    <row r="66" s="32" customFormat="1" ht="14.25"/>
-    <row r="67" s="32" customFormat="1" ht="14.25"/>
-    <row r="68" s="32" customFormat="1" ht="14.25"/>
-    <row r="69" s="32" customFormat="1" ht="14.25"/>
-    <row r="70" s="32" customFormat="1" ht="14.25"/>
-    <row r="71" s="32" customFormat="1" ht="14.25"/>
-    <row r="72" s="32" customFormat="1" ht="14.25"/>
-    <row r="73" s="32" customFormat="1" ht="14.25"/>
-    <row r="74" s="32" customFormat="1" ht="14.25"/>
-    <row r="75" s="32" customFormat="1" ht="14.25"/>
-    <row r="76" s="32" customFormat="1" ht="14.25"/>
-    <row r="77" s="32" customFormat="1" ht="14.25"/>
-    <row r="78" s="32" customFormat="1" ht="14.25"/>
-    <row r="79" s="32" customFormat="1" ht="14.25"/>
-    <row r="80" s="32" customFormat="1" ht="14.25"/>
-    <row r="81" s="32" customFormat="1" ht="14.25"/>
-    <row r="82" s="32" customFormat="1" ht="14.25"/>
-    <row r="83" s="32" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="84" s="32" customFormat="1" ht="14.25"/>
-    <row r="85" s="32" customFormat="1" ht="14.25"/>
-    <row r="86" s="32" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="87" s="32" customFormat="1" ht="14.25"/>
-    <row r="88" s="32" customFormat="1" ht="14.25"/>
-    <row r="89" s="32" customFormat="1" ht="14.25"/>
-    <row r="90" s="32" customFormat="1" ht="14.25"/>
-    <row r="91" s="32" customFormat="1" ht="14.25"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="35"/>
+    </row>
+    <row r="51" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A51" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="35"/>
+    </row>
+    <row r="52" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A52" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="35"/>
+    </row>
+    <row r="53" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A53" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="35"/>
+    </row>
+    <row r="54" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A54" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="35"/>
+    </row>
+    <row r="55" spans="1:9" s="31" customFormat="1" ht="14.25"/>
+    <row r="56" spans="1:9" s="31" customFormat="1" ht="14.25"/>
+    <row r="57" spans="1:9" s="31" customFormat="1" ht="14.25"/>
+    <row r="58" spans="1:9" s="36" customFormat="1" ht="14.25"/>
+    <row r="59" spans="1:9" s="31" customFormat="1" ht="14.25"/>
+    <row r="60" spans="1:9" s="31" customFormat="1" ht="14.25"/>
+    <row r="61" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="35"/>
+    </row>
+    <row r="62" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="35"/>
+    </row>
+    <row r="63" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="35"/>
+    </row>
+    <row r="64" spans="1:9" s="31" customFormat="1" ht="14.25"/>
+    <row r="65" s="31" customFormat="1" ht="14.25"/>
+    <row r="66" s="31" customFormat="1" ht="14.25"/>
+    <row r="67" s="31" customFormat="1" ht="14.25"/>
+    <row r="68" s="31" customFormat="1" ht="14.25"/>
+    <row r="69" s="31" customFormat="1" ht="14.25"/>
+    <row r="70" s="31" customFormat="1" ht="14.25"/>
+    <row r="71" s="31" customFormat="1" ht="14.25"/>
+    <row r="72" s="31" customFormat="1" ht="14.25"/>
+    <row r="73" s="31" customFormat="1" ht="14.25"/>
+    <row r="74" s="31" customFormat="1" ht="14.25"/>
+    <row r="75" s="31" customFormat="1" ht="14.25"/>
+    <row r="76" s="31" customFormat="1" ht="14.25"/>
+    <row r="77" s="31" customFormat="1" ht="14.25"/>
+    <row r="78" s="31" customFormat="1" ht="14.25"/>
+    <row r="79" s="31" customFormat="1" ht="14.25"/>
+    <row r="80" s="31" customFormat="1" ht="14.25"/>
+    <row r="81" s="31" customFormat="1" ht="14.25"/>
+    <row r="82" s="31" customFormat="1" ht="14.25"/>
+    <row r="83" s="31" customFormat="1" ht="14.25"/>
+    <row r="84" s="31" customFormat="1" ht="14.25"/>
+    <row r="85" s="31" customFormat="1" ht="14.25"/>
+    <row r="86" s="31" customFormat="1" ht="14.25"/>
+    <row r="87" s="31" customFormat="1" ht="14.25"/>
+    <row r="88" s="31" customFormat="1" ht="14.25"/>
+    <row r="89" s="31" customFormat="1" ht="14.25"/>
+    <row r="90" s="31" customFormat="1" ht="14.25"/>
+    <row r="91" s="31" customFormat="1" ht="14.25"/>
+    <row r="92" s="31" customFormat="1" ht="14.25"/>
+    <row r="93" s="31" customFormat="1" ht="14.25"/>
+    <row r="94" s="31" customFormat="1" ht="14.25"/>
+    <row r="95" s="31" customFormat="1" ht="14.25"/>
+    <row r="96" s="31" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="97" s="31" customFormat="1" ht="14.25"/>
+    <row r="98" s="31" customFormat="1" ht="14.25"/>
+    <row r="99" s="31" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="100" s="31" customFormat="1" ht="14.25"/>
+    <row r="101" s="31" customFormat="1" ht="14.25"/>
+    <row r="102" s="31" customFormat="1" ht="14.25"/>
+    <row r="103" s="31" customFormat="1" ht="14.25"/>
+    <row r="104" s="31" customFormat="1" ht="14.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F92:H149" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H19 F27:H27" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F105:H162" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F19:H47 D48:F50" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D61:F63 F20:H26 F28:H60" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -2113,12 +2407,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -2283,6 +2571,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
   <ds:schemaRefs>
@@ -2292,15 +2586,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2317,4 +2602,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>